--- a/xlsx/上议院_intext.xlsx
+++ b/xlsx/上议院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>上议院</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>立法機構</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_上议院</t>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>議院</t>
+    <t>议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%99%A2%E5%88%B6</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%99%A2%E5%88%B6</t>
@@ -71,37 +71,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>參議院</t>
+    <t>参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>下議院</t>
+    <t>下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>眾議院</t>
+    <t>众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
+    <t>议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E9%BB%A8%E5%9C%98</t>
   </si>
   <si>
-    <t>議會黨團</t>
+    <t>议会党团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E4%BC%9A%E8%AE%AE%E5%91%98</t>
@@ -113,37 +113,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>國家議會</t>
+    <t>国家议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E7%A8%8B%E5%BA%8F</t>
   </si>
   <si>
-    <t>議會程序</t>
+    <t>议会程序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>委員會</t>
+    <t>委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%9A%E4%BA%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>法定人數</t>
+    <t>法定人数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%A1%88</t>
   </si>
   <si>
-    <t>議案</t>
+    <t>议案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%BF%A1%E4%BB%BB%E5%8B%95%E8%AD%B0</t>
   </si>
   <si>
-    <t>不信任動議</t>
+    <t>不信任动议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E4%BC%9A%E8%AE%AE</t>
@@ -155,19 +155,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>市議會</t>
+    <t>市议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國立法機構列表</t>
+    <t>各国立法机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>Template talk-立法機構</t>
+    <t>Template talk-立法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%8C%BA</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>行政區</t>
+    <t>行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A2%AD%E8%B4%B5%E6%97%8F</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E4%B8%8A%E8%AE%AE%E9%99%A2</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E8%AF%AD</t>
@@ -287,9 +287,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
-    <t>德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91</t>
@@ -335,19 +332,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
+    <t>美国众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88</t>
@@ -377,13 +374,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
-    <t>下议院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%9B%B8</t>
@@ -395,27 +389,21 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>總理</t>
+    <t>总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>澳洲參議院</t>
+    <t>澳洲参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%B8%8A%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>英國上議院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E8%81%94%E9%82%A6%E5%8F%82%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
@@ -425,19 +413,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%9C%8B%E6%9C%83%E4%B8%8A%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>加拿大國會上議院</t>
+    <t>加拿大国会上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>俄羅斯聯邦委員會</t>
+    <t>俄罗斯联邦委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -2171,7 +2159,7 @@
         <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2197,10 +2185,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2226,10 +2214,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2255,10 +2243,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2284,10 +2272,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2313,10 +2301,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
@@ -2342,10 +2330,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2371,10 +2359,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2400,10 +2388,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2429,10 +2417,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2458,10 +2446,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2487,10 +2475,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2516,10 +2504,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2545,10 +2533,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2574,10 +2562,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2603,10 +2591,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G60" t="n">
         <v>5</v>
@@ -2632,10 +2620,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2661,10 +2649,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2690,10 +2678,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2719,10 +2707,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2748,10 +2736,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2777,10 +2765,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="G66" t="n">
         <v>18</v>
@@ -2806,10 +2794,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -2835,10 +2823,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -2864,10 +2852,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2893,10 +2881,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2922,10 +2910,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2951,10 +2939,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2980,10 +2968,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3009,10 +2997,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3038,10 +3026,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3067,10 +3055,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3096,10 +3084,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3125,10 +3113,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3154,10 +3142,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3183,10 +3171,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3212,10 +3200,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3241,10 +3229,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3270,10 +3258,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3299,10 +3287,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3328,10 +3316,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>

--- a/xlsx/上议院_intext.xlsx
+++ b/xlsx/上议院_intext.xlsx
@@ -29,7 +29,7 @@
     <t>立法機構</t>
   </si>
   <si>
-    <t>政策_政策_美國_上议院</t>
+    <t>体育运动_体育运动_欧洲议会_上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E9%99%A2</t>
